--- a/files/reports/parametros/reporte_parametros_piscina_Estanque S-01.xlsx
+++ b/files/reports/parametros/reporte_parametros_piscina_Estanque S-01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Modulo: A  Piscina: Estanque S-01</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Hora</t>
   </si>
   <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
     <t>S-01</t>
   </si>
   <si>
@@ -91,19 +94,25 @@
     <t>22:32:07 p.m.</t>
   </si>
   <si>
+    <t>17:15:31 p.m.</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Promedios: </t>
   </si>
   <si>
-    <t>6.25</t>
+    <t>5.00</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>26.52</t>
-  </si>
-  <si>
-    <t>80.00</t>
+    <t>21.22</t>
+  </si>
+  <si>
+    <t>64.00</t>
   </si>
   <si>
     <t/>
@@ -504,7 +513,7 @@
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="9" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -520,7 +529,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -547,151 +556,186 @@
       </c>
       <c r="I9" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2">
         <v>43590.22938047454</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2">
         <v>43590.230033506945</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2">
         <v>43591.23039589121</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2">
         <v>43591.23063710648</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2">
+        <v>43474.29166666667</v>
+      </c>
+      <c r="I14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="J14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I14" t="s">
-        <v>31</v>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/files/reports/parametros/reporte_parametros_piscina_Estanque S-01.xlsx
+++ b/files/reports/parametros/reporte_parametros_piscina_Estanque S-01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Modulo: A  Piscina: Estanque S-01</t>
   </si>
@@ -49,16 +49,16 @@
     <t>S-01</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>80</t>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>24.70</t>
+  </si>
+  <si>
+    <t>80.00</t>
   </si>
   <si>
     <t>Francisco Javier López Laris</t>
@@ -67,52 +67,76 @@
     <t>22:30:18 p.m.</t>
   </si>
   <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>28.5</t>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>28.50</t>
   </si>
   <si>
     <t>22:31:14 p.m.</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>24.00</t>
   </si>
   <si>
     <t>22:31:46 p.m.</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>28.9</t>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>28.90</t>
   </si>
   <si>
     <t>22:32:07 p.m.</t>
   </si>
   <si>
-    <t>17:15:31 p.m.</t>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>27.90</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>Janeth Romina Cruz Morales</t>
+  </si>
+  <si>
+    <t>22:25:24 p.m.</t>
   </si>
   <si>
     <t>AM</t>
   </si>
   <si>
+    <t>6.20</t>
+  </si>
+  <si>
+    <t>31.70</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>22:26:30 p.m.</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Promedios: </t>
   </si>
   <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>21.22</t>
-  </si>
-  <si>
-    <t>64.00</t>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>27.62</t>
+  </si>
+  <si>
+    <t>84.67</t>
   </si>
   <si>
     <t/>
@@ -529,44 +553,224 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43590.22938047454</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43590.230033506945</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43591.23039589121</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43591.23063710648</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43631</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43631</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -575,167 +779,19 @@
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43590.22938047454</v>
+        <v>42</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43590.230033506945</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43591.23039589121</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="2">
-        <v>43591.23063710648</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2">
-        <v>43474.29166666667</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
